--- a/planificacion/Indice_Autores.xlsx
+++ b/planificacion/Indice_Autores.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Sarmiento\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E1B22D-4A9D-4A13-8A6B-8919CCAC0AAE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{406B4637-03B0-4E12-BC8B-AAAAE43B3A85}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Indice" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Indice!$A$1:$F$1</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
@@ -181,9 +184,6 @@
     <t>Mario Gómez + Luis Maguiña Custodio</t>
   </si>
   <si>
-    <t>Danieldavidromanacosta@gmail.com</t>
-  </si>
-  <si>
     <t>psicoasignaturas@gmail.com</t>
   </si>
   <si>
@@ -202,9 +202,6 @@
     <t>easg@azc.uam.mx</t>
   </si>
   <si>
-    <t>ricardoa.santaq@ulibre.edu.co</t>
-  </si>
-  <si>
     <t>gael.velasquez.revilla@gmail.com</t>
   </si>
   <si>
@@ -236,13 +233,19 @@
   </si>
   <si>
     <t>lmmaguinac@ucvvirtual.edu.pe</t>
+  </si>
+  <si>
+    <t>danieldavidromanacosta@gmail.com</t>
+  </si>
+  <si>
+    <t>ricardoa.santaq@unilibre.edu.co</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -254,6 +257,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -291,16 +302,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -637,16 +651,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="41.44140625" customWidth="1"/>
+    <col min="3" max="3" width="40.5546875" customWidth="1"/>
+    <col min="4" max="4" width="44.5546875" customWidth="1"/>
+    <col min="5" max="5" width="33" customWidth="1"/>
+    <col min="6" max="6" width="35.6640625" customWidth="1"/>
+    <col min="8" max="8" width="32.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -666,7 +687,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -676,17 +697,17 @@
       <c r="C2" t="s">
         <v>38</v>
       </c>
-      <c r="D2" t="s">
-        <v>53</v>
+      <c r="D2" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="E2" t="s">
         <v>40</v>
       </c>
-      <c r="F2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F2" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -697,16 +718,16 @@
         <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="E3" t="s">
         <v>39</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -716,17 +737,18 @@
       <c r="C4" t="s">
         <v>38</v>
       </c>
-      <c r="D4" t="s">
-        <v>53</v>
+      <c r="D4" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="E4" t="s">
         <v>45</v>
       </c>
-      <c r="F4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -737,16 +759,16 @@
         <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="E5" t="s">
         <v>46</v>
       </c>
       <c r="F5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -757,16 +779,16 @@
         <v>39</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E6" t="s">
         <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -777,16 +799,16 @@
         <v>39</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E7" t="s">
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -797,16 +819,16 @@
         <v>39</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E8" t="s">
         <v>38</v>
       </c>
       <c r="F8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -817,16 +839,16 @@
         <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E9" t="s">
         <v>50</v>
       </c>
       <c r="F9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -837,16 +859,16 @@
         <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E10" t="s">
         <v>42</v>
       </c>
       <c r="F10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -857,16 +879,16 @@
         <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="E11" t="s">
         <v>49</v>
       </c>
       <c r="F11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -877,16 +899,16 @@
         <v>41</v>
       </c>
       <c r="D12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E12" t="s">
         <v>48</v>
       </c>
       <c r="F12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -897,16 +919,16 @@
         <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E13" t="s">
         <v>46</v>
       </c>
       <c r="F13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -917,16 +939,16 @@
         <v>42</v>
       </c>
       <c r="D14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E14" t="s">
         <v>41</v>
       </c>
       <c r="F14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -937,16 +959,16 @@
         <v>42</v>
       </c>
       <c r="D15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E15" t="s">
         <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -957,13 +979,13 @@
         <v>39</v>
       </c>
       <c r="D16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E16" t="s">
         <v>38</v>
       </c>
       <c r="F16" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -977,13 +999,13 @@
         <v>39</v>
       </c>
       <c r="D17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E17" t="s">
         <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -997,13 +1019,13 @@
         <v>43</v>
       </c>
       <c r="D18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E18" t="s">
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -1017,13 +1039,13 @@
         <v>40</v>
       </c>
       <c r="D19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E19" t="s">
         <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1037,13 +1059,13 @@
         <v>41</v>
       </c>
       <c r="D20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E20" t="s">
         <v>42</v>
       </c>
       <c r="F20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -1057,13 +1079,13 @@
         <v>44</v>
       </c>
       <c r="D21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E21" t="s">
         <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -1077,13 +1099,13 @@
         <v>45</v>
       </c>
       <c r="D22" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="E22" t="s">
         <v>50</v>
       </c>
       <c r="F22" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -1097,13 +1119,13 @@
         <v>46</v>
       </c>
       <c r="D23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E23" t="s">
         <v>38</v>
       </c>
       <c r="F23" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -1117,13 +1139,13 @@
         <v>43</v>
       </c>
       <c r="D24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E24" t="s">
         <v>39</v>
       </c>
       <c r="F24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -1137,13 +1159,13 @@
         <v>47</v>
       </c>
       <c r="D25" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E25" t="s">
         <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -1157,13 +1179,13 @@
         <v>45</v>
       </c>
       <c r="D26" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="E26" t="s">
         <v>41</v>
       </c>
       <c r="F26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -1177,13 +1199,13 @@
         <v>48</v>
       </c>
       <c r="D27" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E27" t="s">
         <v>42</v>
       </c>
       <c r="F27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -1197,13 +1219,13 @@
         <v>49</v>
       </c>
       <c r="D28" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E28" t="s">
         <v>40</v>
       </c>
       <c r="F28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -1217,13 +1239,13 @@
         <v>41</v>
       </c>
       <c r="D29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E29" t="s">
         <v>46</v>
       </c>
       <c r="F29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -1237,13 +1259,13 @@
         <v>50</v>
       </c>
       <c r="D30" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E30" t="s">
+        <v>66</v>
+      </c>
+      <c r="F30" t="s">
         <v>68</v>
-      </c>
-      <c r="F30" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -1257,13 +1279,13 @@
         <v>42</v>
       </c>
       <c r="D31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E31" t="s">
+        <v>67</v>
+      </c>
+      <c r="F31" t="s">
         <v>69</v>
-      </c>
-      <c r="F31" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -1277,7 +1299,7 @@
         <v>51</v>
       </c>
       <c r="D32" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1291,10 +1313,17 @@
         <v>52</v>
       </c>
       <c r="D33" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F1" xr:uid="{1E150BD6-F50C-47E5-A098-E2BB1B098C4B}"/>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{F23F8AF8-67A0-443F-B5D8-F2E303DB8AD7}"/>
+    <hyperlink ref="D4" r:id="rId2" display="Danieldavidromanacosta@gmail.com" xr:uid="{00BA82D9-05FB-4C91-B703-60A0CCCB5A50}"/>
+    <hyperlink ref="F2" r:id="rId3" xr:uid="{01C038BB-6FAD-4D49-9D25-C713BE87AFB0}"/>
+    <hyperlink ref="F4" r:id="rId4" display="ricardoa.santaq@ulibre.edu.co" xr:uid="{6251A394-FC3B-4E74-9520-B68B2E73F093}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>